--- a/Tableau_data_table_03.xlsx
+++ b/Tableau_data_table_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-yding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB10DBC-9F79-4511-BC6B-A55BF23ED29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E8704-E39C-4EA7-B193-C84941DEBAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{4645C177-4BDA-48B8-A22F-36AE389B4A5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Location</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>Guam</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>Guatemala</t>
@@ -1093,7 +1090,7 @@
   <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D231"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,16 +2256,16 @@
       <c r="B83">
         <v>170184</v>
       </c>
-      <c r="C83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" t="s">
-        <v>86</v>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>18249868</v>
@@ -2282,21 +2279,21 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>63385</v>
       </c>
-      <c r="C85" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" t="s">
-        <v>86</v>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>13497237</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>2015490</v>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>790329</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>11541683</v>
@@ -2352,7 +2349,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>10062994</v>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>7552800</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>9634162</v>
@@ -2394,7 +2391,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>368792</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>1393409033</v>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>276361788</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>85028760</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>41179351</v>
@@ -2464,7 +2461,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>4982904</v>
@@ -2478,7 +2475,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>85410</v>
@@ -2492,7 +2489,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>9291000</v>
@@ -2506,7 +2503,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>60367471</v>
@@ -2520,7 +2517,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>2973462</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>126050796</v>
@@ -2548,21 +2545,21 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104">
         <v>101073</v>
       </c>
-      <c r="C104" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" t="s">
-        <v>86</v>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105">
         <v>10269022</v>
@@ -2576,7 +2573,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>18994958</v>
@@ -2590,7 +2587,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>54985702</v>
@@ -2604,7 +2601,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108">
         <v>121388</v>
@@ -2618,7 +2615,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109">
         <v>1782115</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110">
         <v>4328553</v>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111">
         <v>6628347</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112">
         <v>7379358</v>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113">
         <v>1866934</v>
@@ -2688,7 +2685,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114">
         <v>6769151</v>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>2159067</v>
@@ -2716,7 +2713,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>5180208</v>
@@ -2730,7 +2727,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <v>6958538</v>
@@ -2744,7 +2741,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <v>38254</v>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>2689862</v>
@@ -2772,7 +2769,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120">
         <v>634814</v>
@@ -2786,7 +2783,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>658391</v>
@@ -2800,7 +2797,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>28427333</v>
@@ -2814,7 +2811,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>19647681</v>
@@ -2828,7 +2825,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>32776195</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>543620</v>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>20855724</v>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>516100</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>59618</v>
@@ -2898,7 +2895,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129">
         <v>4775110</v>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130">
         <v>1273428</v>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>130262220</v>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>116255</v>
@@ -2954,7 +2951,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <v>4024025</v>
@@ -2968,7 +2965,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134">
         <v>39520</v>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>3329282</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>628051</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137">
         <v>4981</v>
@@ -3024,7 +3021,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138">
         <v>37344787</v>
@@ -3038,7 +3035,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139">
         <v>32163045</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140">
         <v>54806014</v>
@@ -3066,7 +3063,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141">
         <v>2587344</v>
@@ -3080,21 +3077,21 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142">
         <v>10873</v>
       </c>
-      <c r="C142" t="s">
-        <v>86</v>
-      </c>
-      <c r="D142" t="s">
-        <v>86</v>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143">
         <v>29674920</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144">
         <v>17173094</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145">
         <v>288217</v>
@@ -3136,7 +3133,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146">
         <v>5126300</v>
@@ -3150,7 +3147,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147">
         <v>6702379</v>
@@ -3164,7 +3161,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148">
         <v>25130810</v>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B149">
         <v>211400704</v>
@@ -3192,21 +3189,21 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150">
         <v>1614</v>
       </c>
-      <c r="C150" t="s">
-        <v>86</v>
-      </c>
-      <c r="D150" t="s">
-        <v>86</v>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151">
         <v>2082661</v>
@@ -3220,35 +3217,35 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152" t="s">
-        <v>86</v>
-      </c>
-      <c r="C152" t="s">
-        <v>86</v>
-      </c>
-      <c r="D152" t="s">
-        <v>86</v>
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B153">
         <v>57910</v>
       </c>
-      <c r="C153" t="s">
-        <v>86</v>
-      </c>
-      <c r="D153" t="s">
-        <v>86</v>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154">
         <v>5465629</v>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155">
         <v>5223376</v>
@@ -3276,7 +3273,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156">
         <v>225199929</v>
@@ -3290,7 +3287,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157">
         <v>18174</v>
@@ -3304,7 +3301,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158">
         <v>5222756</v>
@@ -3318,7 +3315,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159">
         <v>4381583</v>
@@ -3332,7 +3329,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160">
         <v>9119005</v>
@@ -3346,7 +3343,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161">
         <v>7219641</v>
@@ -3360,7 +3357,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162">
         <v>33359415</v>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163">
         <v>111046910</v>
@@ -3388,21 +3385,21 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164">
         <v>47</v>
       </c>
-      <c r="C164" t="s">
-        <v>86</v>
-      </c>
-      <c r="D164" t="s">
-        <v>86</v>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>37797000</v>
@@ -3416,7 +3413,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166">
         <v>10167923</v>
@@ -3430,21 +3427,21 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B167">
         <v>2828246</v>
       </c>
-      <c r="C167" t="s">
-        <v>86</v>
-      </c>
-      <c r="D167" t="s">
-        <v>86</v>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B168">
         <v>2930524</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169">
         <v>19127772</v>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170">
         <v>145912022</v>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171">
         <v>13276517</v>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172">
         <v>6095</v>
@@ -3514,7 +3511,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173">
         <v>53546</v>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174">
         <v>184401</v>
@@ -3542,7 +3539,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175">
         <v>5771</v>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176">
         <v>111269</v>
@@ -3570,7 +3567,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>200144</v>
@@ -3584,7 +3581,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178">
         <v>34010</v>
@@ -3598,7 +3595,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179">
         <v>223364</v>
@@ -3612,7 +3609,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180">
         <v>35340680</v>
@@ -3626,7 +3623,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181">
         <v>17196308</v>
@@ -3640,7 +3637,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182">
         <v>6871547</v>
@@ -3654,7 +3651,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183">
         <v>98910</v>
@@ -3668,7 +3665,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184">
         <v>8141343</v>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B185">
         <v>5453600</v>
@@ -3696,21 +3693,21 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186">
         <v>43421</v>
       </c>
-      <c r="C186" t="s">
-        <v>86</v>
-      </c>
-      <c r="D186" t="s">
-        <v>86</v>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187">
         <v>5449270</v>
@@ -3724,7 +3721,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188">
         <v>2078723</v>
@@ -3738,7 +3735,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189">
         <v>703995</v>
@@ -3752,7 +3749,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B190">
         <v>16359500</v>
@@ -3766,7 +3763,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191">
         <v>60041996</v>
@@ -3780,7 +3777,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192">
         <v>51305184</v>
@@ -3794,7 +3791,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193">
         <v>11381377</v>
@@ -3808,7 +3805,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B194">
         <v>46745211</v>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B195">
         <v>21497306</v>
@@ -3836,7 +3833,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B196">
         <v>44909351</v>
@@ -3850,7 +3847,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B197">
         <v>591798</v>
@@ -3864,7 +3861,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>10160159</v>
@@ -3878,7 +3875,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199">
         <v>8715494</v>
@@ -3892,7 +3889,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B200">
         <v>18275704</v>
@@ -3906,7 +3903,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201">
         <v>23855008</v>
@@ -3920,7 +3917,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202">
         <v>9749625</v>
@@ -3934,7 +3931,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203">
         <v>61498438</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B204">
         <v>69950844</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205">
         <v>1343875</v>
@@ -3976,7 +3973,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206">
         <v>8478242</v>
@@ -3990,21 +3987,21 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207">
         <v>1368</v>
       </c>
-      <c r="C207" t="s">
-        <v>86</v>
-      </c>
-      <c r="D207" t="s">
-        <v>86</v>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B208">
         <v>106759</v>
@@ -4018,7 +4015,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B209">
         <v>1403374</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B210">
         <v>11935764</v>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211">
         <v>85042736</v>
@@ -4060,21 +4057,21 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B212">
         <v>6117933</v>
       </c>
-      <c r="C212" t="s">
-        <v>86</v>
-      </c>
-      <c r="D212" t="s">
-        <v>86</v>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B213">
         <v>39226</v>
@@ -4088,21 +4085,21 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B214">
         <v>11925</v>
       </c>
-      <c r="C214" t="s">
-        <v>86</v>
-      </c>
-      <c r="D214" t="s">
-        <v>86</v>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B215">
         <v>47123533</v>
@@ -4116,7 +4113,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B216">
         <v>43466822</v>
@@ -4130,7 +4127,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217">
         <v>9991083</v>
@@ -4144,7 +4141,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B218">
         <v>68207114</v>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B219">
         <v>332915074</v>
@@ -4172,21 +4169,21 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B220">
         <v>104218</v>
       </c>
-      <c r="C220" t="s">
-        <v>86</v>
-      </c>
-      <c r="D220" t="s">
-        <v>86</v>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B221">
         <v>3485152</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B222">
         <v>33935765</v>
@@ -4214,7 +4211,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B223">
         <v>314464</v>
@@ -4228,7 +4225,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B224">
         <v>812</v>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B225">
         <v>28704947</v>
@@ -4256,7 +4253,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B226">
         <v>98168829</v>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227">
         <v>11094</v>
@@ -4284,21 +4281,21 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228">
         <v>611872</v>
       </c>
-      <c r="C228" t="s">
-        <v>86</v>
-      </c>
-      <c r="D228" t="s">
-        <v>86</v>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B229">
         <v>30490639</v>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230">
         <v>18920657</v>
@@ -4326,7 +4323,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B231">
         <v>15092171</v>
